--- a/excel/dept_eigenvector_centrality.xlsx
+++ b/excel/dept_eigenvector_centrality.xlsx
@@ -390,7 +390,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2514185226738332</v>
+        <v>0.2514185301891329</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -405,7 +405,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2507967914610478</v>
+        <v>0.2507967882452418</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2497576653137852</v>
+        <v>0.2497576651191794</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -435,7 +435,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2497576653137852</v>
+        <v>0.2497576651191794</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2486188254532808</v>
+        <v>0.2486188217689488</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.247422779996965</v>
+        <v>0.2474227911316901</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.247422779996965</v>
+        <v>0.2474227911316901</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -491,11 +491,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Zaharije Radivojevic</t>
+          <t>Milos Cvetanovic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.247422779996965</v>
+        <v>0.2474227911316901</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -506,11 +506,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Milos Cvetanovic</t>
+          <t>Zaharije Radivojevic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2474227799969649</v>
+        <v>0.2474227911316901</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2474227799969649</v>
+        <v>0.2474227911316901</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2465804051595263</v>
+        <v>0.2465804048931903</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2456597719984352</v>
+        <v>0.245659780760104</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2455990596369432</v>
+        <v>0.2455990594076663</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2424873577660759</v>
+        <v>0.2424873217032141</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -596,11 +596,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pavle Vuletic</t>
+          <t>Slavko Gajin</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2415011663215931</v>
+        <v>0.2415011750485908</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -611,11 +611,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Slavko Gajin</t>
+          <t>Pavle Vuletic</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2415011663215931</v>
+        <v>0.2415011750485908</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.09687353473807883</v>
+        <v>0.09687354719644443</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06803191433986008</v>
+        <v>0.06803191578316911</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06703860137483492</v>
+        <v>0.06703855641662797</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.04121671565521515</v>
+        <v>0.04121671325046578</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.03662331977961945</v>
+        <v>0.03662331772283443</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02183643164352494</v>
+        <v>0.02183638416107751</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02125479107912235</v>
+        <v>0.02125478776761245</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01734501364577926</v>
+        <v>0.01734496320647438</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01703125059048815</v>
+        <v>0.01703122664188244</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0163691288132258</v>
+        <v>0.01636913030578541</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01632865136970311</v>
+        <v>0.0163286504935438</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01613293455428216</v>
+        <v>0.01613267782792093</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01605413416299486</v>
+        <v>0.01605413401913373</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.008554532184738848</v>
+        <v>0.008554468391244447</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.007580322697087975</v>
+        <v>0.007580254847849374</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.007112862110858658</v>
+        <v>0.007112860945590248</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001653171159572017</v>
+        <v>0.001653104220908706</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001421715284261469</v>
+        <v>0.001421703553317933</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.001326200865437686</v>
+        <v>0.001325919076774653</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.001326200865437686</v>
+        <v>0.001325919076774652</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.001326200865437686</v>
+        <v>0.001325919076774648</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -945,7 +945,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.001322037226580978</v>
+        <v>0.001321704587707331</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.001127785563542127</v>
+        <v>0.001127762054011114</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.00110885963640947</v>
+        <v>0.001108853702861979</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0005593610081392481</v>
+        <v>0.0005593379532058515</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0002591589930423121</v>
+        <v>0.0002589802206661503</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.0002037814902867104</v>
+        <v>0.0002037296499133268</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0001311070560580383</v>
+        <v>0.0001310561948944717</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0001305829529552683</v>
+        <v>0.0001305346149040795</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1061,11 +1061,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sinisa Vlajic</t>
+          <t>Dusan Savic</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>9.524980224459856e-05</v>
+        <v>9.501704589925024e-05</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1076,11 +1076,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dusan Savic</t>
+          <t>Sinisa Vlajic</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9.524980224459855e-05</v>
+        <v>9.501704589923363e-05</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>8.670831097772396e-05</v>
+        <v>8.668955779120581e-05</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.660699503202164e-05</v>
+        <v>3.657605931540853e-05</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.705610401770281e-05</v>
+        <v>1.7031417887821e-05</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1136,11 +1136,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sasa Lazarevic</t>
+          <t>Ilija Antovic</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.439937433193597e-05</v>
+        <v>1.422484441414061e-05</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1151,11 +1151,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ilija Antovic</t>
+          <t>Milos Milic</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.439937433193597e-05</v>
+        <v>1.422484441413437e-05</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1166,11 +1166,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Milos Milic</t>
+          <t>Sasa Lazarevic</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.439937433193597e-05</v>
+        <v>1.422484441412198e-05</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>8.545345583113389e-06</v>
+        <v>8.532688223083729e-06</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.553058425460534e-06</v>
+        <v>2.44504328898982e-06</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1211,86 +1211,86 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sladjan Babarogic</t>
+          <t>Vladan Devedzic</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.883832782103545e-06</v>
+        <v>2.092484061993385e-07</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FON_IS</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nenad Anicic</t>
+          <t>Zoran Sevarac</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.830845403171934e-06</v>
+        <v>1.986848045580854e-07</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FON_IS</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Milica Vuckovic</t>
+          <t>Bojan Tomic</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.830845403171934e-06</v>
+        <v>1.986848045576422e-07</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FON_IS</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Nina Turajlic</t>
+          <t>Nikola Milikic</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.830845403171934e-06</v>
+        <v>1.986848045428252e-07</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>FON_IS</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Zoran Marjanovic</t>
+          <t>Dragan Djuric</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.675647126879562e-06</v>
+        <v>1.728132233934432e-07</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FON_IS</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Marko Petrovic</t>
+          <t>Nina Turajlic</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.675647126879562e-06</v>
+        <v>2.498001805406603e-16</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1301,11 +1301,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sinisa Neskovic</t>
+          <t>Milica Vuckovic</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.32162865927257e-06</v>
+        <v>2.427427829314246e-16</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1316,11 +1316,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ognjen Pantelic</t>
+          <t>Sladjan Babarogic</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3.487228989251686e-07</v>
+        <v>2.182858257031212e-16</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1331,26 +1331,26 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Vladan Devedzic</t>
+          <t>Marko Petrovic</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.113563826396245e-07</v>
+        <v>2.004429496921925e-16</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Vidan Markovic</t>
+          <t>Nenad Anicic</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.002266930713993e-07</v>
+        <v>1.99959026494369e-16</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1361,11 +1361,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Srdja Bjeladinovic</t>
+          <t>Zoran Marjanovic</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3.002266930713993e-07</v>
+        <v>1.889017276416964e-16</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1376,60 +1376,60 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bojan Tomic</t>
+          <t>Sinisa Neskovic</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.914361648124914e-07</v>
+        <v>1.498531046897948e-16</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Zoran Sevarac</t>
+          <t>Srdja Bjeladinovic</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.914361648124914e-07</v>
+        <v>3.11572599318022e-17</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Nikola Milikic</t>
+          <t>Vidan Markovic</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2.914361648124914e-07</v>
+        <v>3.052085201906925e-17</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Dragan Djuric</t>
+          <t>Ognjen Pantelic</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2.220794434400588e-07</v>
+        <v>2.655743215706969e-17</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>6.248138022392023e-08</v>
+        <v>1.554136051622191e-17</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
